--- a/config.xlsx
+++ b/config.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FAEFBC-EBA3-4347-A8B8-1F015727A134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFFCB88-B9FB-45AA-8D38-62FC256C3AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{0A5B9D2D-F95F-4543-B3F0-486CC57D78C1}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{0A5B9D2D-F95F-4543-B3F0-486CC57D78C1}"/>
   </bookViews>
   <sheets>
     <sheet name="terms" sheetId="1" r:id="rId1"/>
     <sheet name="abbreviations" sheetId="2" r:id="rId2"/>
-    <sheet name="petrogenesis" sheetId="3" r:id="rId3"/>
+    <sheet name="rock_class" sheetId="3" r:id="rId3"/>
     <sheet name="ages" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -250,9 +250,6 @@
     <t>minerals</t>
   </si>
   <si>
-    <t>petrogenesis</t>
-  </si>
-  <si>
     <t>text_age</t>
   </si>
   <si>
@@ -1568,6 +1565,9 @@
   </si>
   <si>
     <t>meta</t>
+  </si>
+  <si>
+    <t>rock_class</t>
   </si>
 </sst>
 </file>
@@ -1950,8 +1950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFA004A-5A2F-4E89-ADAB-B6E02AB5933F}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1979,13 +1979,13 @@
         <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>62</v>
+        <v>501</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>57</v>
@@ -1994,7 +1994,7 @@
         <v>59</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>58</v>
@@ -2002,472 +2002,472 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E5" t="s">
         <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" t="s">
         <v>181</v>
-      </c>
-      <c r="D6" t="s">
-        <v>182</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E7" t="s">
         <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E8" t="s">
         <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E9" t="s">
         <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E11" t="s">
         <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E13" t="s">
         <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E15" t="s">
         <v>42</v>
       </c>
       <c r="H15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E16" t="s">
         <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
       </c>
       <c r="J17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E18" t="s">
         <v>43</v>
       </c>
       <c r="J18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
       </c>
       <c r="J19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E20" t="s">
         <v>13</v>
       </c>
       <c r="J20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
       </c>
       <c r="J21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E22" t="s">
         <v>46</v>
       </c>
       <c r="J22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E23" t="s">
         <v>36</v>
       </c>
       <c r="J23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2478,86 +2478,86 @@
         <v>15</v>
       </c>
       <c r="J24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E25" t="s">
         <v>16</v>
       </c>
       <c r="J25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E26" t="s">
         <v>40</v>
       </c>
       <c r="J26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E27" t="s">
         <v>17</v>
       </c>
       <c r="J27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E28" t="s">
         <v>51</v>
       </c>
       <c r="J28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E29" t="s">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E30" t="s">
         <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E32" t="s">
         <v>34</v>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E33" t="s">
         <v>44</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E34" t="s">
         <v>38</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E35" t="s">
         <v>39</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E36" t="s">
         <v>31</v>
@@ -2597,7 +2597,7 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E37" t="s">
         <v>18</v>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E38" t="s">
         <v>50</v>
@@ -2613,7 +2613,7 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E39" t="s">
         <v>54</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E40" t="s">
         <v>20</v>
@@ -2629,7 +2629,7 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E41" t="s">
         <v>21</v>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E42" t="s">
         <v>53</v>
@@ -2645,7 +2645,7 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E43" t="s">
         <v>22</v>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E44" t="s">
         <v>23</v>
@@ -2661,7 +2661,7 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E45" t="s">
         <v>24</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E46" t="s">
         <v>25</v>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E47" t="s">
         <v>26</v>
@@ -2685,7 +2685,7 @@
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E48" t="s">
         <v>32</v>
@@ -2693,7 +2693,7 @@
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E49" t="s">
         <v>28</v>
@@ -2701,7 +2701,7 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E50" t="s">
         <v>47</v>
@@ -2709,7 +2709,7 @@
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E51" t="s">
         <v>27</v>
@@ -2717,7 +2717,7 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E52" t="s">
         <v>41</v>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E53" t="s">
         <v>37</v>
@@ -2733,7 +2733,7 @@
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E54" t="s">
         <v>29</v>
@@ -2741,7 +2741,7 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E55" t="s">
         <v>14</v>
@@ -2749,7 +2749,7 @@
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E56" t="s">
         <v>45</v>
@@ -2757,18 +2757,18 @@
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E58" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -2822,7 +2822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DFCCD1-14EA-422A-B5C2-9684D574A366}">
   <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
@@ -2834,39 +2834,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -2874,15 +2874,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B7" t="s">
         <v>48</v>
@@ -2890,63 +2890,63 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -2954,47 +2954,47 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -3002,23 +3002,23 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
@@ -3026,39 +3026,39 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B29" t="s">
         <v>33</v>
@@ -3066,151 +3066,151 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
+        <v>280</v>
+      </c>
+      <c r="B45" t="s">
         <v>281</v>
-      </c>
-      <c r="B45" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B48" t="s">
         <v>34</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B49" t="s">
         <v>34</v>
@@ -3226,31 +3226,31 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B53" t="s">
         <v>31</v>
@@ -3258,55 +3258,55 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B55" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
+        <v>247</v>
+      </c>
+      <c r="B56" t="s">
         <v>248</v>
-      </c>
-      <c r="B56" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B60" t="s">
         <v>21</v>
@@ -3314,15 +3314,15 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B61" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B62" t="s">
         <v>26</v>
@@ -3330,15 +3330,15 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B64" t="s">
         <v>28</v>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B65" t="s">
         <v>32</v>
@@ -3354,7 +3354,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B66" t="s">
         <v>23</v>
@@ -3362,31 +3362,31 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B70" t="s">
         <v>27</v>
@@ -3394,23 +3394,23 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B71" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B72" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B73" t="s">
         <v>33</v>
@@ -3418,66 +3418,66 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
+        <v>312</v>
+      </c>
+      <c r="B75" t="s">
         <v>313</v>
-      </c>
-      <c r="B75" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
+        <v>314</v>
+      </c>
+      <c r="B76" t="s">
         <v>315</v>
-      </c>
-      <c r="B76" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
+        <v>316</v>
+      </c>
+      <c r="B77" t="s">
         <v>317</v>
-      </c>
-      <c r="B77" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
+        <v>318</v>
+      </c>
+      <c r="B78" t="s">
         <v>319</v>
-      </c>
-      <c r="B78" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
+        <v>323</v>
+      </c>
+      <c r="B79" t="s">
         <v>324</v>
-      </c>
-      <c r="B79" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B81" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -3485,31 +3485,31 @@
         <v>55</v>
       </c>
       <c r="B82" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B83" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B84" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B85" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -3530,7 +3530,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3544,19 +3544,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>301</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3573,7 +3573,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3581,7 +3581,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -3590,7 +3590,7 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3598,7 +3598,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -3612,7 +3612,7 @@
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -3634,7 +3634,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
@@ -3662,7 +3662,7 @@
         <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3682,12 +3682,12 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -3727,18 +3727,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" t="s">
         <v>331</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>332</v>
-      </c>
-      <c r="C1" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B2">
         <v>174.1</v>
@@ -3749,7 +3749,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B3">
         <v>440.8</v>
@@ -3760,7 +3760,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B4">
         <v>113</v>
@@ -3771,7 +3771,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B5">
         <v>247.2</v>
@@ -3782,7 +3782,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B6">
         <v>125</v>
@@ -3793,7 +3793,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B7">
         <v>23.03</v>
@@ -3804,7 +3804,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B8">
         <v>4000</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B9">
         <v>290.10000000000002</v>
@@ -3826,7 +3826,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B10">
         <v>298.89999999999998</v>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B11">
         <v>170.3</v>
@@ -3848,7 +3848,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B12">
         <v>129.4</v>
@@ -3859,7 +3859,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B13">
         <v>41.2</v>
@@ -3870,7 +3870,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B14">
         <v>323.2</v>
@@ -3881,7 +3881,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B15">
         <v>168.3</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B16">
         <v>145</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B17">
         <v>20.440000000000001</v>
@@ -3914,7 +3914,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B18">
         <v>1.8</v>
@@ -3925,7 +3925,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B19">
         <v>166.1</v>
@@ -3936,7 +3936,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B20">
         <v>1600</v>
@@ -3947,7 +3947,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B21">
         <v>541</v>
@@ -3958,7 +3958,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B22">
         <v>489.5</v>
@@ -3969,7 +3969,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B23">
         <v>529</v>
@@ -3980,7 +3980,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B24">
         <v>521</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B25">
         <v>514</v>
@@ -4002,7 +4002,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B26">
         <v>509</v>
@@ -4013,7 +4013,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B27">
         <v>521</v>
@@ -4024,7 +4024,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B28">
         <v>509</v>
@@ -4035,7 +4035,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B29">
         <v>83.6</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B30">
         <v>265.10000000000002</v>
@@ -4057,7 +4057,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B31">
         <v>358.9</v>
@@ -4068,7 +4068,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B32">
         <v>237</v>
@@ -4079,7 +4079,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B33">
         <v>100.5</v>
@@ -4090,7 +4090,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B34">
         <v>254.14</v>
@@ -4101,7 +4101,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B35">
         <v>27.82</v>
@@ -4112,7 +4112,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B36">
         <v>298.89999999999998</v>
@@ -4123,7 +4123,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B37">
         <v>89.8</v>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B38">
         <v>145</v>
@@ -4145,7 +4145,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B39">
         <v>720</v>
@@ -4156,7 +4156,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B40">
         <v>66</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B41">
         <v>470</v>
@@ -4178,7 +4178,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B42">
         <v>467.3</v>
@@ -4189,7 +4189,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B43">
         <v>419.2</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B44">
         <v>504.5</v>
@@ -4211,7 +4211,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B45">
         <v>145</v>
@@ -4222,7 +4222,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B46">
         <v>419.2</v>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B47">
         <v>201.3</v>
@@ -4244,7 +4244,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B48">
         <v>358.9</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B49">
         <v>485.4</v>
@@ -4266,7 +4266,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B50">
         <v>323.2</v>
@@ -4277,7 +4277,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B51">
         <v>251.9</v>
@@ -4288,7 +4288,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B52">
         <v>1400</v>
@@ -4299,7 +4299,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B53">
         <v>635</v>
@@ -4310,7 +4310,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B54">
         <v>393.3</v>
@@ -4321,7 +4321,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B55">
         <v>407.6</v>
@@ -4332,7 +4332,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B56">
         <v>4000</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B57">
         <v>56</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B58">
         <v>372.2</v>
@@ -4365,7 +4365,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B59">
         <v>477.7</v>
@@ -4376,7 +4376,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B60">
         <v>541</v>
@@ -4387,7 +4387,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B61">
         <v>382.7</v>
@@ -4398,7 +4398,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B62">
         <v>497</v>
@@ -4409,7 +4409,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B63">
         <v>2.58</v>
@@ -4420,7 +4420,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B64">
         <v>387.7</v>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B65">
         <v>427.4</v>
@@ -4442,7 +4442,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B66">
         <v>272.95</v>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B67">
         <v>500.5</v>
@@ -4464,7 +4464,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B68">
         <v>303.7</v>
@@ -4475,7 +4475,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B69">
         <v>132.9</v>
@@ -4486,7 +4486,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B70">
         <v>201.3</v>
@@ -4497,7 +4497,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B71">
         <v>445.2</v>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B72">
         <v>1.2E-2</v>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B73">
         <v>430.5</v>
@@ -4530,7 +4530,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B74">
         <v>251.9</v>
@@ -4541,7 +4541,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B75">
         <v>494</v>
@@ -4552,7 +4552,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B76">
         <v>201.3</v>
@@ -4563,7 +4563,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B77">
         <v>307</v>
@@ -4574,7 +4574,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B78">
         <v>453</v>
@@ -4585,7 +4585,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B79">
         <v>157.30000000000001</v>
@@ -4596,7 +4596,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B80">
         <v>283.5</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B81">
         <v>242</v>
@@ -4618,7 +4618,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B82">
         <v>15.97</v>
@@ -4629,7 +4629,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B83">
         <v>100.5</v>
@@ -4640,7 +4640,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B84">
         <v>382.7</v>
@@ -4651,7 +4651,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B85">
         <v>163.5</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B86">
         <v>330.9</v>
@@ -4673,7 +4673,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B87">
         <v>458.4</v>
@@ -4684,7 +4684,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B88">
         <v>307</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B89">
         <v>237</v>
@@ -4706,7 +4706,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B90">
         <v>443.8</v>
@@ -4717,7 +4717,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B91">
         <v>419.2</v>
@@ -4728,7 +4728,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B92">
         <v>259.10000000000002</v>
@@ -4739,7 +4739,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B93">
         <v>425.6</v>
@@ -4750,7 +4750,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B94">
         <v>427.4</v>
@@ -4761,7 +4761,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B95">
         <v>47.8</v>
@@ -4772,7 +4772,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B96">
         <v>72.099999999999994</v>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B97">
         <v>3200</v>
@@ -4794,7 +4794,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B98">
         <v>1600</v>
@@ -4805,7 +4805,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B99">
         <v>251.9</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B100">
         <v>7.2460000000000004</v>
@@ -4827,7 +4827,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B101">
         <v>393.3</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B102">
         <v>174.1</v>
@@ -4849,7 +4849,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B103">
         <v>346.7</v>
@@ -4860,7 +4860,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B104">
         <v>470</v>
@@ -4871,7 +4871,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B105">
         <v>315.2</v>
@@ -4882,7 +4882,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B106">
         <v>247.2</v>
@@ -4893,7 +4893,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B107">
         <v>23.03</v>
@@ -4904,7 +4904,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B108">
         <v>358.9</v>
@@ -4915,7 +4915,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B109">
         <v>315.2</v>
@@ -4926,7 +4926,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B110">
         <v>2800</v>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B111">
         <v>23.03</v>
@@ -4948,7 +4948,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B112">
         <v>1000</v>
@@ -4959,7 +4959,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B113">
         <v>227</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B114">
         <v>251.2</v>
@@ -4981,7 +4981,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B115">
         <v>33.9</v>
@@ -4992,7 +4992,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B116">
         <v>485.4</v>
@@ -5003,7 +5003,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B117">
         <v>2050</v>
@@ -5014,7 +5014,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B118">
         <v>163.5</v>
@@ -5025,7 +5025,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B119">
         <v>497</v>
@@ -5036,7 +5036,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B120">
         <v>3600</v>
@@ -5047,7 +5047,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B121">
         <v>66</v>
@@ -5058,7 +5058,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B122">
         <v>66</v>
@@ -5069,7 +5069,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B123">
         <v>2500</v>
@@ -5080,7 +5080,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B124">
         <v>541</v>
@@ -5091,7 +5091,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B125">
         <v>323.2</v>
@@ -5102,7 +5102,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B126">
         <v>298.89999999999998</v>
@@ -5113,7 +5113,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B127">
         <v>3.6</v>
@@ -5124,7 +5124,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B128">
         <v>190.8</v>
@@ -5135,7 +5135,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B129">
         <v>2.58</v>
@@ -5146,7 +5146,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B130">
         <v>5.3330000000000002</v>
@@ -5157,7 +5157,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B131">
         <v>410.8</v>
@@ -5168,7 +5168,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B132">
         <v>4000</v>
@@ -5179,7 +5179,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B133">
         <v>37.799999999999997</v>
@@ -5190,7 +5190,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B134">
         <v>423</v>
@@ -5201,7 +5201,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B135">
         <v>2500</v>
@@ -5212,7 +5212,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B136">
         <v>2.58</v>
@@ -5223,7 +5223,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B137">
         <v>208.5</v>
@@ -5234,7 +5234,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B138">
         <v>443.8</v>
@@ -5245,7 +5245,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B139">
         <v>2300</v>
@@ -5256,7 +5256,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B140">
         <v>272.95</v>
@@ -5267,7 +5267,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B141">
         <v>33.9</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B142">
         <v>295</v>
@@ -5289,7 +5289,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B143">
         <v>458.4</v>
@@ -5300,7 +5300,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B144">
         <v>86.3</v>
@@ -5311,7 +5311,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B145">
         <v>61.6</v>
@@ -5322,7 +5322,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B146">
         <v>330.9</v>
@@ -5333,7 +5333,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B147">
         <v>13.82</v>
@@ -5344,7 +5344,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B148">
         <v>433.4</v>
@@ -5355,7 +5355,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B149">
         <v>2500</v>
@@ -5366,7 +5366,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B150">
         <v>443.8</v>
@@ -5377,7 +5377,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B151">
         <v>199.3</v>
@@ -5388,7 +5388,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B152">
         <v>1800</v>
@@ -5399,7 +5399,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B153">
         <v>1200</v>
@@ -5410,7 +5410,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B154">
         <v>438.5</v>
@@ -5421,7 +5421,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B155">
         <v>541</v>
@@ -5432,7 +5432,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B156">
         <v>66</v>
@@ -5443,7 +5443,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B157">
         <v>59.2</v>
@@ -5454,7 +5454,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B158">
         <v>152.1</v>
@@ -5465,7 +5465,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B159">
         <v>182.7</v>
@@ -5476,7 +5476,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B160">
         <v>1000</v>
@@ -5487,7 +5487,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B161">
         <v>11.63</v>
@@ -5498,7 +5498,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B162">
         <v>358.9</v>
@@ -5509,7 +5509,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B163">
         <v>485.4</v>
@@ -5520,7 +5520,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B164">
         <v>251.9</v>
@@ -5531,7 +5531,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B165">
         <v>93.9</v>
@@ -5542,7 +5542,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B166">
         <v>4000</v>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B167">
         <v>139.80000000000001</v>
@@ -5564,7 +5564,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B168">
         <v>346.7</v>
@@ -5575,7 +5575,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B169">
         <v>433.4</v>
@@ -5586,7 +5586,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B170">
         <v>268.8</v>
@@ -5597,7 +5597,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B171">
         <v>259.10000000000002</v>
@@ -5608,7 +5608,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B172">
         <v>56</v>
@@ -5619,7 +5619,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B173">
         <v>5.3330000000000002</v>
@@ -5630,7 +5630,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B174">
         <v>66</v>
